--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Nid1-Col13a1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Nid1-Col13a1.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>43.995596</v>
+        <v>28.743868</v>
       </c>
       <c r="H2">
-        <v>131.986788</v>
+        <v>86.231604</v>
       </c>
       <c r="I2">
-        <v>0.08241811124115486</v>
+        <v>0.0554303735704667</v>
       </c>
       <c r="J2">
-        <v>0.08241811124115485</v>
+        <v>0.0554303735704667</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1042226666666667</v>
+        <v>0.1837056666666667</v>
       </c>
       <c r="N2">
-        <v>0.312668</v>
+        <v>0.5511170000000001</v>
       </c>
       <c r="O2">
-        <v>0.6017220210075787</v>
+        <v>0.7269991860920679</v>
       </c>
       <c r="P2">
-        <v>0.6017220210075785</v>
+        <v>0.7269991860920678</v>
       </c>
       <c r="Q2">
-        <v>4.585338336709333</v>
+        <v>5.280411433518668</v>
       </c>
       <c r="R2">
-        <v>41.26804503038399</v>
+        <v>47.52370290166801</v>
       </c>
       <c r="S2">
-        <v>0.04959279246365514</v>
+        <v>0.04029783647050857</v>
       </c>
       <c r="T2">
-        <v>0.04959279246365512</v>
+        <v>0.04029783647050856</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>43.995596</v>
+        <v>28.743868</v>
       </c>
       <c r="H3">
-        <v>131.986788</v>
+        <v>86.231604</v>
       </c>
       <c r="I3">
-        <v>0.08241811124115486</v>
+        <v>0.0554303735704667</v>
       </c>
       <c r="J3">
-        <v>0.08241811124115485</v>
+        <v>0.0554303735704667</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.192158</v>
       </c>
       <c r="O3">
-        <v>0.3698034340347406</v>
+        <v>0.2534828531892131</v>
       </c>
       <c r="P3">
-        <v>0.3698034340347406</v>
+        <v>0.2534828531892131</v>
       </c>
       <c r="Q3">
-        <v>2.818035245389333</v>
+        <v>1.841121395714667</v>
       </c>
       <c r="R3">
-        <v>25.362317208504</v>
+        <v>16.570092561432</v>
       </c>
       <c r="S3">
-        <v>0.03047850056363633</v>
+        <v>0.01405064924598585</v>
       </c>
       <c r="T3">
-        <v>0.03047850056363632</v>
+        <v>0.01405064924598585</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>43.995596</v>
+        <v>28.743868</v>
       </c>
       <c r="H4">
-        <v>131.986788</v>
+        <v>86.231604</v>
       </c>
       <c r="I4">
-        <v>0.08241811124115486</v>
+        <v>0.0554303735704667</v>
       </c>
       <c r="J4">
-        <v>0.08241811124115485</v>
+        <v>0.0554303735704667</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,22 +682,22 @@
         <v>0.014796</v>
       </c>
       <c r="O4">
-        <v>0.02847454495768078</v>
+        <v>0.01951796071871896</v>
       </c>
       <c r="P4">
-        <v>0.02847454495768078</v>
+        <v>0.01951796071871896</v>
       </c>
       <c r="Q4">
-        <v>0.216986279472</v>
+        <v>0.141764756976</v>
       </c>
       <c r="R4">
-        <v>1.952876515248</v>
+        <v>1.275882812784</v>
       </c>
       <c r="S4">
-        <v>0.002346818213863399</v>
+        <v>0.001081887853972286</v>
       </c>
       <c r="T4">
-        <v>0.002346818213863399</v>
+        <v>0.001081887853972286</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>1319.462585</v>
       </c>
       <c r="I5">
-        <v>0.8239280291378236</v>
+        <v>0.848161237947095</v>
       </c>
       <c r="J5">
-        <v>0.8239280291378236</v>
+        <v>0.8481612379470951</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1042226666666667</v>
+        <v>0.1837056666666667</v>
       </c>
       <c r="N5">
-        <v>0.312668</v>
+        <v>0.5511170000000001</v>
       </c>
       <c r="O5">
-        <v>0.6017220210075787</v>
+        <v>0.7269991860920679</v>
       </c>
       <c r="P5">
-        <v>0.6017220210075785</v>
+        <v>0.7269991860920678</v>
       </c>
       <c r="Q5">
-        <v>45.83930305853111</v>
+        <v>80.79758460638278</v>
       </c>
       <c r="R5">
-        <v>412.55372752678</v>
+        <v>727.178261457445</v>
       </c>
       <c r="S5">
-        <v>0.4957756388576023</v>
+        <v>0.6166125296623788</v>
       </c>
       <c r="T5">
-        <v>0.4957756388576023</v>
+        <v>0.6166125296623788</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1319.462585</v>
       </c>
       <c r="I6">
-        <v>0.8239280291378236</v>
+        <v>0.848161237947095</v>
       </c>
       <c r="J6">
-        <v>0.8239280291378236</v>
+        <v>0.8481612379470951</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,10 +806,10 @@
         <v>0.192158</v>
       </c>
       <c r="O6">
-        <v>0.3698034340347406</v>
+        <v>0.2534828531892131</v>
       </c>
       <c r="P6">
-        <v>0.3698034340347406</v>
+        <v>0.2534828531892131</v>
       </c>
       <c r="Q6">
         <v>28.17169904538111</v>
@@ -818,10 +818,10 @@
         <v>253.54529140843</v>
       </c>
       <c r="S6">
-        <v>0.304691414572643</v>
+        <v>0.2149943305593247</v>
       </c>
       <c r="T6">
-        <v>0.304691414572643</v>
+        <v>0.2149943305593247</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1319.462585</v>
       </c>
       <c r="I7">
-        <v>0.8239280291378236</v>
+        <v>0.848161237947095</v>
       </c>
       <c r="J7">
-        <v>0.8239280291378236</v>
+        <v>0.8481612379470951</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,10 +868,10 @@
         <v>0.014796</v>
       </c>
       <c r="O7">
-        <v>0.02847454495768078</v>
+        <v>0.01951796071871896</v>
       </c>
       <c r="P7">
-        <v>0.02847454495768078</v>
+        <v>0.01951796071871896</v>
       </c>
       <c r="Q7">
         <v>2.16919648974</v>
@@ -880,10 +880,10 @@
         <v>19.52276840766</v>
       </c>
       <c r="S7">
-        <v>0.02346097570757828</v>
+        <v>0.01655437772539144</v>
       </c>
       <c r="T7">
-        <v>0.02346097570757828</v>
+        <v>0.01655437772539144</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>49.99334866666667</v>
+        <v>49.99334866666666</v>
       </c>
       <c r="H8">
         <v>149.980046</v>
       </c>
       <c r="I8">
-        <v>0.09365385962102149</v>
+        <v>0.09640838848243828</v>
       </c>
       <c r="J8">
-        <v>0.09365385962102149</v>
+        <v>0.09640838848243828</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1042226666666667</v>
+        <v>0.1837056666666667</v>
       </c>
       <c r="N8">
-        <v>0.312668</v>
+        <v>0.5511170000000001</v>
       </c>
       <c r="O8">
-        <v>0.6017220210075787</v>
+        <v>0.7269991860920679</v>
       </c>
       <c r="P8">
-        <v>0.6017220210075785</v>
+        <v>0.7269991860920678</v>
       </c>
       <c r="Q8">
-        <v>5.210440113636445</v>
+        <v>9.18406144570911</v>
       </c>
       <c r="R8">
-        <v>46.89396102272801</v>
+        <v>82.656553011382</v>
       </c>
       <c r="S8">
-        <v>0.05635358968632111</v>
+        <v>0.07008881995918052</v>
       </c>
       <c r="T8">
-        <v>0.05635358968632111</v>
+        <v>0.07008881995918051</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>49.99334866666667</v>
+        <v>49.99334866666666</v>
       </c>
       <c r="H9">
         <v>149.980046</v>
       </c>
       <c r="I9">
-        <v>0.09365385962102149</v>
+        <v>0.09640838848243828</v>
       </c>
       <c r="J9">
-        <v>0.09365385962102149</v>
+        <v>0.09640838848243828</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,10 +992,10 @@
         <v>0.192158</v>
       </c>
       <c r="O9">
-        <v>0.3698034340347406</v>
+        <v>0.2534828531892131</v>
       </c>
       <c r="P9">
-        <v>0.3698034340347406</v>
+        <v>0.2534828531892131</v>
       </c>
       <c r="Q9">
         <v>3.202207297696444</v>
@@ -1004,10 +1004,10 @@
         <v>28.819865679268</v>
       </c>
       <c r="S9">
-        <v>0.03463351889846128</v>
+        <v>0.02443787338390253</v>
       </c>
       <c r="T9">
-        <v>0.03463351889846127</v>
+        <v>0.02443787338390253</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>49.99334866666667</v>
+        <v>49.99334866666666</v>
       </c>
       <c r="H10">
         <v>149.980046</v>
       </c>
       <c r="I10">
-        <v>0.09365385962102149</v>
+        <v>0.09640838848243828</v>
       </c>
       <c r="J10">
-        <v>0.09365385962102149</v>
+        <v>0.09640838848243828</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1054,10 +1054,10 @@
         <v>0.014796</v>
       </c>
       <c r="O10">
-        <v>0.02847454495768078</v>
+        <v>0.01951796071871896</v>
       </c>
       <c r="P10">
-        <v>0.02847454495768078</v>
+        <v>0.01951796071871896</v>
       </c>
       <c r="Q10">
         <v>0.246567195624</v>
@@ -1066,10 +1066,10 @@
         <v>2.219104760616</v>
       </c>
       <c r="S10">
-        <v>0.002666751036239101</v>
+        <v>0.001881695139355228</v>
       </c>
       <c r="T10">
-        <v>0.002666751036239101</v>
+        <v>0.001881695139355228</v>
       </c>
     </row>
   </sheetData>
